--- a/Multiknapsack/results/random_recourse/multicut/M50_N100_T50_a75_ccg.xlsx
+++ b/Multiknapsack/results/random_recourse/multicut/M50_N100_T50_a75_ccg.xlsx
@@ -474,7 +474,7 @@
         <v>-868.6204008868366</v>
       </c>
       <c r="C2">
-        <v>1203.387961595</v>
+        <v>1252.369127951</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -503,7 +503,7 @@
         <v>-871.4259892868957</v>
       </c>
       <c r="C3">
-        <v>1200.225607796</v>
+        <v>1404.700269338</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -532,7 +532,7 @@
         <v>-878.4337228798242</v>
       </c>
       <c r="C4">
-        <v>1204.898069691</v>
+        <v>1196.390677708</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -561,7 +561,7 @@
         <v>-892.0673665166089</v>
       </c>
       <c r="C5">
-        <v>789.301388984</v>
+        <v>804.675731879</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>-870.2837410694815</v>
       </c>
       <c r="C6">
-        <v>1212.448499628</v>
+        <v>1382.103584759</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-850.8159243552832</v>
+        <v>-850.8159243656047</v>
       </c>
       <c r="C7">
-        <v>1191.467110433</v>
+        <v>1373.464032942</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -648,7 +648,7 @@
         <v>-852.6134596921099</v>
       </c>
       <c r="C8">
-        <v>1204.649260089</v>
+        <v>1192.674797786</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>-872.6935719217236</v>
       </c>
       <c r="C9">
-        <v>1127.518798391</v>
+        <v>1132.823321609</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -706,7 +706,7 @@
         <v>-866.8034918459662</v>
       </c>
       <c r="C10">
-        <v>1220.657312138</v>
+        <v>1495.255522237</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -735,7 +735,7 @@
         <v>-860.3587113299484</v>
       </c>
       <c r="C11">
-        <v>713.922101443</v>
+        <v>658.308469182</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.035332470495971</v>
+        <v>11.842163594135377</v>
       </c>
       <c r="E2">
         <v>48.08328</v>
@@ -811,10 +811,10 @@
         <v>-866.8034918459662</v>
       </c>
       <c r="C3">
-        <v>1.3186539425383914</v>
+        <v>0.0948664709994042</v>
       </c>
       <c r="D3">
-        <v>1007.1895720858372</v>
+        <v>1313.1303340175432</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,7 +861,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>12.967676737219483</v>
+        <v>11.803123490339722</v>
       </c>
       <c r="E2">
         <v>49.16368</v>
@@ -878,7 +878,7 @@
         <v>0.09803812558075779</v>
       </c>
       <c r="D3">
-        <v>505.5244129300653</v>
+        <v>474.58255641225463</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>12.11084597338452</v>
+        <v>12.316470153888794</v>
       </c>
       <c r="E2">
         <v>50.79565</v>
@@ -939,10 +939,10 @@
         <v>-868.6204008868366</v>
       </c>
       <c r="C3">
-        <v>1.9128898078707262</v>
+        <v>0.09976696032066357</v>
       </c>
       <c r="D3">
-        <v>1006.3451002686993</v>
+        <v>1065.0611238394972</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>11.17508008778125</v>
+        <v>12.578151509451171</v>
       </c>
       <c r="E2">
         <v>45.4608</v>
@@ -1003,10 +1003,10 @@
         <v>-871.4259892868957</v>
       </c>
       <c r="C3">
-        <v>2.673764240917077</v>
+        <v>0.09301862524417995</v>
       </c>
       <c r="D3">
-        <v>1006.7987741674544</v>
+        <v>1220.9666475295562</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,7 +1053,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.553554606706786</v>
+        <v>11.435332970393311</v>
       </c>
       <c r="E2">
         <v>49.8785</v>
@@ -1070,7 +1070,7 @@
         <v>0.09652435200014385</v>
       </c>
       <c r="D3">
-        <v>1003.6558758248883</v>
+        <v>989.0963921435509</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,7 +1117,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.833677071554932</v>
+        <v>11.01385122432251</v>
       </c>
       <c r="E2">
         <v>50.98638</v>
@@ -1134,7 +1134,7 @@
         <v>0.09954145571117516</v>
       </c>
       <c r="D3">
-        <v>603.7482564542094</v>
+        <v>612.0706227661673</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.71911579563037</v>
+        <v>11.44146026940747</v>
       </c>
       <c r="E2">
         <v>45.76267</v>
@@ -1195,10 +1195,10 @@
         <v>-870.2837410694815</v>
       </c>
       <c r="C3">
-        <v>1.5172102588181715</v>
+        <v>0.08568619061343723</v>
       </c>
       <c r="D3">
-        <v>1006.3300814092102</v>
+        <v>1201.2744398542748</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,7 +1245,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>7.147110549880615</v>
+        <v>11.792407551202027</v>
       </c>
       <c r="E2">
         <v>50.15144</v>
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-850.8159243552832</v>
+        <v>-850.8159243656047</v>
       </c>
       <c r="C3">
-        <v>1.2902841363922146</v>
+        <v>0.09935042989076803</v>
       </c>
       <c r="D3">
-        <v>1005.3507010035918</v>
+        <v>1187.7891846597388</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,7 +1309,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>14.211012589621582</v>
+        <v>10.902888867528686</v>
       </c>
       <c r="E2">
         <v>50.42128</v>
@@ -1326,7 +1326,7 @@
         <v>0.09235320632780235</v>
       </c>
       <c r="D3">
-        <v>992.0882096344867</v>
+        <v>1009.2711717171753</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,7 +1373,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>13.169456798184449</v>
+        <v>11.087962900236938</v>
       </c>
       <c r="E2">
         <v>50.93931</v>
@@ -1390,7 +1390,7 @@
         <v>0.09951114209661853</v>
       </c>
       <c r="D3">
-        <v>914.3040481874443</v>
+        <v>943.7851584157027</v>
       </c>
       <c r="E3">
         <v>0.0</v>
